--- a/biology/Botanique/Matelea/Matelea.xlsx
+++ b/biology/Botanique/Matelea/Matelea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matelea est un genre de plante à fleurs de la famille des Apocynaceae[3], dont l'espèce type est Matelea palustris Aubl.. Ce genre comprend entre 232 et 401 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matelea est un genre de plante à fleurs de la famille des Apocynaceae, dont l'espèce type est Matelea palustris Aubl.. Ce genre comprend entre 232 et 401 espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Matelea regroupe des lianes et arbustes vivaces, produisant un latex blanc.
 La plante porte une pilosité omniprésente ou rangée sur deux lignes, souvent constituée d'un mélange de trichomes unicellulaires et multicellulaires, droits ou courbés, glanduleux ou non en capitule (s'ils sont présents, les trichomes glanduleux sont nettement plus courts que les trichomes non-glanduleux).
@@ -521,7 +535,7 @@
 Le calice est parfois doté de plusieurs collétères.
 Les lobes de la corolle sont diversement colorés de blanc à vert, jaune, marron ou brun, ocellés ou non, réticulés ou non. Les lobes se chevauchent à la base ou non, et souvent imbriqués dans le bourgeon, rarement valvés, avec des marges parfois crispées. 
 Le fruit est un follicule d'apparence variée (non ailé, ailé, lisse, muriculé ou tuberculé). 
-Les graines sont principalement plates ou plan-convexes, à marge distale entière ou dentée[4].
+Les graines sont principalement plates ou plan-convexes, à marge distale entière ou dentée.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Matelea est endémique du Nouveau Monde, depuis les sud-est et sud-ouest des Etats-Unis jusqu'à l'Argentine, avec une seule espèce introduite et naturalisée en Afrique de l'Ouest[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Matelea est endémique du Nouveau Monde, depuis les sud-est et sud-ouest des Etats-Unis jusqu'à l'Argentine, avec une seule espèce introduite et naturalisée en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[5] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « MATELEA. (Tabula 109. Fig. 1.)
 CAL. Perianthium monophyllum, turbinatum, quinquepartitum, laciniis oblongis, acutis. 
 COR. monopetala, ſubviridis ; tubus breviſſimus, receptaculo piſtilli inſertus, limbus patens, quinquefidus ; lobis ſubrotundis, mutuò incumbentibus. 
@@ -620,7 +638,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Matelea alabamensis (en) (Vail) Woodson
@@ -672,9 +692,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (02 février 2024)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (02 février 2024) :
 Matelea abbreviata (en) Standl. &amp; L.O.Williams
 Matelea acevedoi (en) Morillo
 Matelea adenocardia (en) (Standl.) Woodson
@@ -908,13 +930,13 @@
 Matelea woodsonii (en) Shinners
 Matelea wootonii (en) (Vail) Woodson
 Matelea woytkowskii (en) Morillo
-Selon Tropicos                                           (02 février 2024)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (02 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Matelea abbreviata (en) Standl. &amp; L.O. Williams, 1968
 Matelea acevedoi (en) Morillo, 2012
 Matelea acuminata (en) (Griseb.) Woodson, 1941
 Matelea acutissima (en) (Rusby) Morillo, 1983
 Matelea adenocardia (en) (Standl.) Woodson, 1941
-Matelea aenea (en) (Woodson) W.D. Stevens, 1988 [1989]
+Matelea aenea (en) (Woodson) W.D. Stevens, 1988 
 Matelea alabamensis (en) (Vail) Woodson, 1941
 Matelea alainii (en) Woodson, 1956
 Matelea albiflora (en) (H. Karst.) Dugand, 1966
@@ -952,7 +974,7 @@
 Matelea bicolor (en) (Britton &amp; P. Wilson) Woodson, 1941
 Matelea biflora (en) (Raf.) Woodson, 1941
 Matelea bolivarensis (en) Morillo, 1977
-Matelea boliviana (en) Morillo, 1989 [1990]
+Matelea boliviana (en) Morillo, 1989 
 Matelea boliviensis (en) (Schltr.) Goyder, 2006
 Matelea borinquensis (en) Alain, 1986
 Matelea brasiliensis (en) (Schltr.) Spellman, 1973
@@ -989,7 +1011,7 @@
 Matelea coriacea (en) Morillo, 1977
 Matelea cornejoi (en) Morillo, 2012
 Matelea corniculata (en) W.D. Stevens &amp; Arbeláez, 2014
-Matelea correllii (en) Spellman, 1978 [1979]
+Matelea correllii (en) Spellman, 1978 
 Matelea corrugata (en) W.D. Stevens, 2005
 Matelea corynephora (en) Krings, 2006
 Matelea costanensis (en) Morillo, 1978
@@ -1029,7 +1051,7 @@
 Matelea elliptica (en) (Rusby) Morillo, 1992
 Matelea emmartinezii (en) W.D. Stevens, 2005
 Matelea endressiae (en) Goes &amp; Fontella, 2009
-Matelea eximia (en) W.D. Stevens, 1988 [1989]
+Matelea eximia (en) W.D. Stevens, 1988 
 Matelea falcata (en) Juárez-Jaimes, Hern.-Barón &amp; W.D. Stevens, 2021
 Matelea fendleri (en) Morillo, 1993
 Matelea ferruginea (en) W.D. Stevens, 2005
@@ -1072,7 +1094,7 @@
 Matelea guatemalensis (en) (K. Schum.) Woodson, 1941
 Matelea haberi (en) W.D. Stevens, 2005
 Matelea haitiensis (en) (P.T. Li) Krings, 2011
-Matelea hamata (en) W.D. Stevens, 1988 [1989]
+Matelea hamata (en) W.D. Stevens, 1988 
 Matelea harleyi (en) Fontella &amp; Morillo, 1994
 Matelea harlingii (en) Morillo, 1986
 Matelea hastata (en) Alain, 1968
@@ -1109,7 +1131,7 @@
 Matelea lasiostemma (en) (Hemsl.) Shinners, 1964
 Matelea latifolia (en) Aubl., 1775
 Matelea laurae (en) Morillo, 1985
-Matelea lauta (en) W.D. Stevens, 1988 [1989]
+Matelea lauta (en) W.D. Stevens, 1988 
 Matelea lehmannii (en) (Schltr.) Morillo, 1985
 Matelea leptogenia (en) (B.L. Rob.) Woodson, 1941
 Matelea lesueurii (en) (Standl.) Woodson, 1941
@@ -1124,7 +1146,7 @@
 Matelea longifolia (en) (Markgr.) Morillo, 1984
 Matelea lourteigiae (en) Morillo, 1984
 Matelea macrocarpa (en) (Poepp.) Morillo, 1984
-Matelea macvaughiana (en) W.D. Stevens, 1988 [1989]
+Matelea macvaughiana (en) W.D. Stevens, 1988 
 Matelea magallanesii (en) E.J. Lott, 1992
 Matelea magdalenica (en) Morillo, 1992
 Matelea magnifolia (en) (Pittier) Woodson, 1941
@@ -1239,7 +1261,7 @@
 Matelea sastrei (en) Morillo, 1985
 Matelea schaffneri (en) (A. Gray ex Hemsl.) Woodson, 1941
 Matelea schreiteri (en) (T. Mey.) Pontir., 1983
-Matelea schultesii (en) Morillo &amp; Carnevali, 1989 [1990]
+Matelea schultesii (en) Morillo &amp; Carnevali, 1989 
 Matelea schunkei (en) Morillo, 1990
 Matelea schunkei (en) Spellman
 Matelea scopulorum (en) (Brandegee) Woodson, 1941
@@ -1264,7 +1286,7 @@
 Matelea suberosa (en) (L.) Shinners, 1950
 Matelea subsessilifolia (en) Morillo, 1985
 Matelea sucrensis (en) Morillo, 1980
-Matelea suffruticosa (en) W.D. Stevens, 1988 [1989]
+Matelea suffruticosa (en) W.D. Stevens, 1988 
 Matelea sugillata (en) W.D. Stevens, 2000
 Matelea surinamensis (en) Morillo, 1980
 Matelea sylvicola (en) L.O. Williams, 1968
@@ -1272,7 +1294,7 @@
 Matelea tamnifolia (en) (Griseb.) Woodson, 1941
 Matelea tarrazuana (en) J.E. Jiménez &amp; Hidalgo-Mora, 2021
 Matelea tenuis (en) Woodson, 1941
-Matelea texensis (en) Correll, 1966 [1967]
+Matelea texensis (en) Correll, 1966 
 Matelea tezcatlipocantha (en) E.B. Cortez, Lozada-Pérez &amp; L.O. Alvarado, 2018
 Matelea tigrina (en) (Griseb.) Woodson, 1941
 Matelea tikalana (en) Lundell, 1968
